--- a/glチーム制作ガントチャート.xlsx
+++ b/glチーム制作ガントチャート.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>要素</t>
     <rPh sb="0" eb="2">
@@ -66,20 +66,6 @@
     <t>発表会</t>
     <rPh sb="0" eb="3">
       <t>ハッピョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガントチャート・仕様書</t>
-    <rPh sb="8" eb="11">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロトタイプ版</t>
-    <rPh sb="6" eb="7">
-      <t>バン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -169,12 +155,194 @@
     <t>アニメーション</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>坂本</t>
+    <rPh sb="0" eb="2">
+      <t>サカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小林</t>
+    <rPh sb="0" eb="2">
+      <t>コバヤシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兜森</t>
+    <rPh sb="0" eb="1">
+      <t>カブト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頂点情報調整</t>
+    <rPh sb="0" eb="2">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河野</t>
+    <rPh sb="0" eb="2">
+      <t>コウノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神山</t>
+    <rPh sb="0" eb="2">
+      <t>カミヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3D板ポリ</t>
+    <rPh sb="2" eb="3">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂本・小山</t>
+    <rPh sb="0" eb="2">
+      <t>サカモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野尻</t>
+    <rPh sb="0" eb="2">
+      <t>ノジリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大井川</t>
+    <rPh sb="0" eb="3">
+      <t>オオイガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾処理</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターマネージャーインターフェース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コリジョン管理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コリジョン処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材用意</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2D素材</t>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3D素材</t>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小山</t>
+    <rPh sb="0" eb="2">
+      <t>コヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GL・ガントチャート・仕様書</t>
+    <rPh sb="11" eb="14">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GL・プロトタイプ版</t>
+    <rPh sb="9" eb="10">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +372,23 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -254,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +535,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,16 +864,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AT110"/>
+  <dimension ref="B2:AT119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" customWidth="1"/>
     <col min="3" max="3" width="16.6328125" customWidth="1"/>
     <col min="4" max="4" width="3.08984375" customWidth="1"/>
     <col min="5" max="7" width="3" customWidth="1"/>
@@ -925,33 +1116,41 @@
       <c r="AT3" s="6"/>
     </row>
     <row r="4" spans="2:46" s="3" customFormat="1" ht="167.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
-        <v>7</v>
+      <c r="M4" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="15"/>
       <c r="P4" s="18"/>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="U4" s="2"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
       <c r="X4" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" s="29"/>
       <c r="AC4" s="29"/>
@@ -979,20 +1178,28 @@
       <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" s="7">
         <f>SUM(F5:AT5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="M5" s="11">
+        <v>1</v>
+      </c>
       <c r="N5" s="11"/>
       <c r="O5" s="16"/>
       <c r="P5" s="19"/>
@@ -1029,24 +1236,30 @@
     </row>
     <row r="6" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" ref="D6:D53" si="0">SUM(F6:AT6)</f>
-        <v>0</v>
+        <f t="shared" ref="D6:D62" si="0">SUM(F6:AT6)</f>
+        <v>3</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="M6" s="11">
+        <v>1</v>
+      </c>
       <c r="N6" s="11"/>
       <c r="O6" s="16"/>
       <c r="P6" s="19"/>
@@ -1083,7 +1296,7 @@
     </row>
     <row r="7" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="7">
@@ -1135,9 +1348,11 @@
     </row>
     <row r="8" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1187,9 +1402,11 @@
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1339,7 +1556,7 @@
     </row>
     <row r="12" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B12" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="7">
@@ -1391,9 +1608,11 @@
     </row>
     <row r="13" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="25"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1492,8 +1711,12 @@
       <c r="AT14" s="8"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B15" s="22"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1593,7 +1816,7 @@
     </row>
     <row r="17" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="7">
@@ -1645,9 +1868,11 @@
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="25"/>
+        <v>18</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1696,8 +1921,12 @@
       <c r="AT18" s="8"/>
     </row>
     <row r="19" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B19" s="22"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1746,9 +1975,7 @@
       <c r="AT19" s="8"/>
     </row>
     <row r="20" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="7">
         <f t="shared" si="0"/>
@@ -1798,8 +2025,12 @@
       <c r="AT20" s="8"/>
     </row>
     <row r="21" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1848,9 +2079,7 @@
       <c r="AT21" s="8"/>
     </row>
     <row r="22" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B22" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B22" s="22"/>
       <c r="C22" s="25"/>
       <c r="D22" s="7">
         <f t="shared" si="0"/>
@@ -1900,8 +2129,12 @@
       <c r="AT22" s="8"/>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B23" s="22"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="D23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1950,8 +2183,12 @@
       <c r="AT23" s="8"/>
     </row>
     <row r="24" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B24" s="22"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="D24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2000,7 +2237,7 @@
       <c r="AT24" s="8"/>
     </row>
     <row r="25" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="25"/>
       <c r="D25" s="7">
         <f t="shared" si="0"/>
@@ -2050,7 +2287,7 @@
       <c r="AT25" s="8"/>
     </row>
     <row r="26" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B26" s="22"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="25"/>
       <c r="D26" s="7">
         <f t="shared" si="0"/>
@@ -2099,9 +2336,13 @@
       <c r="AS26" s="7"/>
       <c r="AT26" s="8"/>
     </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B27" s="22"/>
-      <c r="C27" s="25"/>
+    <row r="27" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="D27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2150,11 +2391,13 @@
       <c r="AT27" s="8"/>
     </row>
     <row r="28" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B28" s="22"/>
       <c r="C28" s="25"/>
       <c r="D28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="16"/>
@@ -2198,8 +2441,8 @@
       <c r="AT28" s="8"/>
     </row>
     <row r="29" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B29" s="21" t="s">
-        <v>15</v>
+      <c r="B29" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="7">
@@ -2250,8 +2493,8 @@
       <c r="AT29" s="8"/>
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B30" s="21" t="s">
-        <v>22</v>
+      <c r="B30" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="7">
@@ -2302,6 +2545,9 @@
       <c r="AT30" s="8"/>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B31" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="C31" s="25"/>
       <c r="D31" s="7">
         <f t="shared" si="0"/>
@@ -2351,6 +2597,7 @@
       <c r="AT31" s="8"/>
     </row>
     <row r="32" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B32" s="22"/>
       <c r="C32" s="25"/>
       <c r="D32" s="7">
         <f t="shared" si="0"/>
@@ -2399,13 +2646,12 @@
       <c r="AS32" s="7"/>
       <c r="AT32" s="8"/>
     </row>
-    <row r="33" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C33" s="25"/>
       <c r="D33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="16"/>
@@ -2448,18 +2694,25 @@
       <c r="AS33" s="7"/>
       <c r="AT33" s="8"/>
     </row>
-    <row r="34" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C34" s="25"/>
+    <row r="34" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>26</v>
+      </c>
       <c r="D34" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="11"/>
+      <c r="J34" s="11">
+        <v>1</v>
+      </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
@@ -2497,18 +2750,25 @@
       <c r="AS34" s="7"/>
       <c r="AT34" s="8"/>
     </row>
-    <row r="35" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C35" s="25"/>
+    <row r="35" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B35" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>26</v>
+      </c>
       <c r="D35" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
-      <c r="J35" s="11"/>
+      <c r="J35" s="11">
+        <v>1</v>
+      </c>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
@@ -2546,18 +2806,25 @@
       <c r="AS35" s="7"/>
       <c r="AT35" s="8"/>
     </row>
-    <row r="36" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C36" s="25"/>
+    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B36" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="D36" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="11"/>
+      <c r="J36" s="11">
+        <v>1</v>
+      </c>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
@@ -2595,20 +2862,32 @@
       <c r="AS36" s="7"/>
       <c r="AT36" s="8"/>
     </row>
-    <row r="37" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B37" s="21"/>
       <c r="C37" s="25"/>
       <c r="D37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="12"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
@@ -2633,20 +2912,36 @@
       <c r="AS37" s="7"/>
       <c r="AT37" s="8"/>
     </row>
-    <row r="38" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C38" s="25"/>
+    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B38" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>21</v>
+      </c>
       <c r="D38" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="12"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
@@ -2671,20 +2966,32 @@
       <c r="AS38" s="7"/>
       <c r="AT38" s="8"/>
     </row>
-    <row r="39" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B39" s="21"/>
       <c r="C39" s="25"/>
       <c r="D39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="12"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
@@ -2709,20 +3016,31 @@
       <c r="AS39" s="7"/>
       <c r="AT39" s="8"/>
     </row>
-    <row r="40" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C40" s="25"/>
       <c r="D40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="12"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
@@ -2747,15 +3065,34 @@
       <c r="AS40" s="7"/>
       <c r="AT40" s="8"/>
     </row>
-    <row r="41" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B41" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="C41" s="25"/>
       <c r="D41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="L41"/>
-      <c r="P41" s="17"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
@@ -2780,15 +3117,36 @@
       <c r="AS41" s="7"/>
       <c r="AT41" s="8"/>
     </row>
-    <row r="42" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C42" s="25"/>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B42" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="D42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="L42"/>
-      <c r="P42" s="17"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
@@ -2813,15 +3171,36 @@
       <c r="AS42" s="7"/>
       <c r="AT42" s="8"/>
     </row>
-    <row r="43" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C43" s="25"/>
+    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B43" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="D43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43" s="7"/>
-      <c r="L43"/>
-      <c r="P43" s="17"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
@@ -2846,15 +3225,31 @@
       <c r="AS43" s="7"/>
       <c r="AT43" s="8"/>
     </row>
-    <row r="44" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C44" s="25"/>
       <c r="D44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="L44"/>
-      <c r="P44" s="17"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
@@ -2879,15 +3274,31 @@
       <c r="AS44" s="7"/>
       <c r="AT44" s="8"/>
     </row>
-    <row r="45" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C45" s="25"/>
       <c r="D45" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45" s="7"/>
-      <c r="L45"/>
-      <c r="P45" s="17"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
@@ -2912,15 +3323,34 @@
       <c r="AS45" s="7"/>
       <c r="AT45" s="8"/>
     </row>
-    <row r="46" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B46" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="C46" s="25"/>
       <c r="D46" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(F46:AT46)</f>
         <v>0</v>
       </c>
       <c r="E46" s="7"/>
-      <c r="L46"/>
-      <c r="P46" s="17"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
@@ -2945,15 +3375,23 @@
       <c r="AS46" s="7"/>
       <c r="AT46" s="8"/>
     </row>
-    <row r="47" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B47" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="C47" s="25"/>
       <c r="D47" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47" s="7"/>
-      <c r="L47"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
       <c r="P47" s="17"/>
+      <c r="Q47" s="12"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
@@ -2978,15 +3416,20 @@
       <c r="AS47" s="7"/>
       <c r="AT47" s="8"/>
     </row>
-    <row r="48" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C48" s="25"/>
       <c r="D48" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48" s="7"/>
-      <c r="L48"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
       <c r="P48" s="17"/>
+      <c r="Q48" s="12"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
@@ -3018,8 +3461,13 @@
         <v>0</v>
       </c>
       <c r="E49" s="7"/>
-      <c r="L49"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
       <c r="P49" s="17"/>
+      <c r="Q49" s="12"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
@@ -3178,162 +3626,305 @@
     </row>
     <row r="54" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C54" s="25"/>
+      <c r="D54" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="7"/>
       <c r="L54"/>
       <c r="P54" s="17"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="30"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="7"/>
+      <c r="AP54" s="7"/>
+      <c r="AQ54" s="7"/>
+      <c r="AR54" s="7"/>
+      <c r="AS54" s="7"/>
+      <c r="AT54" s="8"/>
     </row>
     <row r="55" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C55" s="25"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
+      <c r="D55" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="L55"/>
       <c r="P55" s="17"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+      <c r="AO55" s="7"/>
+      <c r="AP55" s="7"/>
+      <c r="AQ55" s="7"/>
+      <c r="AR55" s="7"/>
+      <c r="AS55" s="7"/>
+      <c r="AT55" s="8"/>
     </row>
     <row r="56" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C56" s="25"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
+      <c r="D56" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="L56"/>
+      <c r="P56" s="17"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+      <c r="AP56" s="7"/>
+      <c r="AQ56" s="7"/>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7"/>
+      <c r="AT56" s="8"/>
     </row>
     <row r="57" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C57" s="25"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
+      <c r="D57" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="L57"/>
+      <c r="P57" s="17"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="7"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+      <c r="AO57" s="7"/>
+      <c r="AP57" s="7"/>
+      <c r="AQ57" s="7"/>
+      <c r="AR57" s="7"/>
+      <c r="AS57" s="7"/>
+      <c r="AT57" s="8"/>
     </row>
     <row r="58" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C58" s="25"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
+      <c r="D58" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="L58"/>
+      <c r="P58" s="17"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+      <c r="AO58" s="7"/>
+      <c r="AP58" s="7"/>
+      <c r="AQ58" s="7"/>
+      <c r="AR58" s="7"/>
+      <c r="AS58" s="7"/>
+      <c r="AT58" s="8"/>
     </row>
     <row r="59" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C59" s="25"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
+      <c r="D59" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="L59"/>
+      <c r="P59" s="17"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="30"/>
+      <c r="AB59" s="30"/>
+      <c r="AC59" s="30"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+      <c r="AO59" s="7"/>
+      <c r="AP59" s="7"/>
+      <c r="AQ59" s="7"/>
+      <c r="AR59" s="7"/>
+      <c r="AS59" s="7"/>
+      <c r="AT59" s="8"/>
     </row>
     <row r="60" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C60" s="25"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
+      <c r="D60" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="L60"/>
+      <c r="P60" s="17"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+      <c r="AO60" s="7"/>
+      <c r="AP60" s="7"/>
+      <c r="AQ60" s="7"/>
+      <c r="AR60" s="7"/>
+      <c r="AS60" s="7"/>
+      <c r="AT60" s="8"/>
     </row>
     <row r="61" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C61" s="25"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
+      <c r="D61" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="L61"/>
+      <c r="P61" s="17"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="30"/>
+      <c r="AB61" s="30"/>
+      <c r="AC61" s="30"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+      <c r="AP61" s="7"/>
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="7"/>
+      <c r="AT61" s="8"/>
     </row>
     <row r="62" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C62" s="25"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
+      <c r="D62" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="L62"/>
+      <c r="P62" s="17"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="30"/>
+      <c r="AB62" s="30"/>
+      <c r="AC62" s="30"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+      <c r="AO62" s="7"/>
+      <c r="AP62" s="7"/>
+      <c r="AQ62" s="7"/>
+      <c r="AR62" s="7"/>
+      <c r="AS62" s="7"/>
+      <c r="AT62" s="8"/>
     </row>
     <row r="63" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C63" s="25"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
+      <c r="L63"/>
+      <c r="P63" s="17"/>
     </row>
     <row r="64" spans="3:46" x14ac:dyDescent="0.2">
       <c r="C64" s="25"/>
@@ -3346,6 +3937,7 @@
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
+      <c r="P64" s="17"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
       <c r="S64" s="12"/>
@@ -3846,6 +4438,7 @@
       <c r="U93" s="12"/>
     </row>
     <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C94" s="25"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -3862,6 +4455,7 @@
       <c r="U94" s="12"/>
     </row>
     <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C95" s="25"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -3878,6 +4472,7 @@
       <c r="U95" s="12"/>
     </row>
     <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C96" s="25"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
@@ -3893,7 +4488,8 @@
       <c r="T96" s="12"/>
       <c r="U96" s="12"/>
     </row>
-    <row r="97" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C97" s="25"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -3909,7 +4505,8 @@
       <c r="T97" s="12"/>
       <c r="U97" s="12"/>
     </row>
-    <row r="98" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C98" s="25"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -3925,7 +4522,8 @@
       <c r="T98" s="12"/>
       <c r="U98" s="12"/>
     </row>
-    <row r="99" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C99" s="25"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
@@ -3941,7 +4539,8 @@
       <c r="T99" s="12"/>
       <c r="U99" s="12"/>
     </row>
-    <row r="100" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C100" s="25"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
@@ -3957,7 +4556,8 @@
       <c r="T100" s="12"/>
       <c r="U100" s="12"/>
     </row>
-    <row r="101" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C101" s="25"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -3973,7 +4573,8 @@
       <c r="T101" s="12"/>
       <c r="U101" s="12"/>
     </row>
-    <row r="102" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C102" s="25"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
@@ -3989,7 +4590,7 @@
       <c r="T102" s="12"/>
       <c r="U102" s="12"/>
     </row>
-    <row r="103" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
@@ -4005,7 +4606,7 @@
       <c r="T103" s="12"/>
       <c r="U103" s="12"/>
     </row>
-    <row r="104" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -4021,7 +4622,7 @@
       <c r="T104" s="12"/>
       <c r="U104" s="12"/>
     </row>
-    <row r="105" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -4037,7 +4638,7 @@
       <c r="T105" s="12"/>
       <c r="U105" s="12"/>
     </row>
-    <row r="106" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
@@ -4053,7 +4654,7 @@
       <c r="T106" s="12"/>
       <c r="U106" s="12"/>
     </row>
-    <row r="107" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -4069,7 +4670,7 @@
       <c r="T107" s="12"/>
       <c r="U107" s="12"/>
     </row>
-    <row r="108" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
@@ -4085,7 +4686,7 @@
       <c r="T108" s="12"/>
       <c r="U108" s="12"/>
     </row>
-    <row r="109" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
@@ -4101,7 +4702,7 @@
       <c r="T109" s="12"/>
       <c r="U109" s="12"/>
     </row>
-    <row r="110" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -4117,14 +4718,158 @@
       <c r="T110" s="12"/>
       <c r="U110" s="12"/>
     </row>
+    <row r="111" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+    </row>
+    <row r="112" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+    </row>
+    <row r="113" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+    </row>
+    <row r="114" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+    </row>
+    <row r="115" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+    </row>
+    <row r="116" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+    </row>
+    <row r="117" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+    </row>
+    <row r="118" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+    </row>
+    <row r="119" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F34 F32:H32 F22:AS31 F35:AS43 H34:AS34 F33:AS33 J32:AS32">
+  <conditionalFormatting sqref="F43 F41:H41 H43:AS43 F42:AS42 J41:AS41 F27:AS40 F44:AS52">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:AT53">
+  <conditionalFormatting sqref="F5:AT62">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
